--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/04.TraBH/TBH220311_DLTruc.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/04.TraBH/TBH220311_DLTruc.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -96,9 +96,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 11 tháng 03 năm 2022</t>
-  </si>
-  <si>
     <t>TG102LE</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>Không thuộc diện bảo hành</t>
+  </si>
+  <si>
+    <t>Tạm giữ lại</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 14 tháng 03 năm 2022</t>
   </si>
 </sst>
 </file>
@@ -700,6 +703,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,90 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1156,7 +1159,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G18" sqref="G18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1176,77 +1179,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="50" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="53" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="53" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="56" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1255,58 +1258,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="B7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="L10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="32">
         <v>868183038484270</v>
@@ -1355,12 +1358,14 @@
       <c r="E12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
@@ -1370,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="32">
         <v>868183033816385</v>
@@ -1381,10 +1386,10 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>28</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>29</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
@@ -1394,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="32">
         <v>868183037844169</v>
@@ -1403,12 +1408,14 @@
       <c r="E14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="20"/>
@@ -1418,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="32">
         <v>868183037854929</v>
@@ -1427,12 +1434,14 @@
       <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="G15" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="20"/>
@@ -1442,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="32">
         <v>868926033906048</v>
@@ -1454,7 +1463,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
@@ -1478,26 +1487,26 @@
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="G18" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -1542,45 +1551,45 @@
       <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="66" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G24:I24"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1.2" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
